--- a/reisverslag_2025_Q1.xlsx
+++ b/reisverslag_2025_Q1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
   </cols>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wassenaar</t>
+          <t>Hoofddorp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,18 +478,18 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-01-2025</t>
+          <t>08-01-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leidschendam</t>
+          <t>Heerhugowaard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,18 +498,18 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-01-2025</t>
+          <t>08-01-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enschede</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -518,18 +518,18 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>406</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-01-2025</t>
+          <t>11-01-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wassenaar</t>
+          <t>Zoetermeer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -538,18 +538,18 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09-01-2025</t>
+          <t>14-01-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -558,18 +558,18 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-01-2025</t>
+          <t>16-01-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rijswijk</t>
+          <t>Mechelen BE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -578,18 +578,18 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>13-01-2025</t>
+          <t>17-01-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zoetermeer</t>
+          <t>Katwijk</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -598,18 +598,18 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>14-01-2025</t>
+          <t>20-01-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alphen aan den Rijn</t>
+          <t>Hoofddorp</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -618,18 +618,18 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-01-2025</t>
+          <t>20-01-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Zoetermeer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -649,7 +649,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Noordwijk</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -658,18 +658,18 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22-01-2025</t>
+          <t>23-01-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Hilversum</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -678,18 +678,18 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>23-01-2025</t>
+          <t>04-02-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bodegraven</t>
+          <t>Vlaardingen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -698,18 +698,18 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>27-01-2025</t>
+          <t>06-02-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -718,18 +718,18 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>28-01-2025</t>
+          <t>08-02-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hilversum</t>
+          <t>Schiedam</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -738,18 +738,18 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>29-01-2025</t>
+          <t>10-02-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nieuwegein</t>
+          <t>Deventer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -758,18 +758,18 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30-01-2025</t>
+          <t>10-02-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Heerhugowaard</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -778,18 +778,18 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>31-01-2025</t>
+          <t>13-02-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Leidschendam</t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -798,18 +798,18 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01-02-2025</t>
+          <t>16-02-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Woerden</t>
+          <t>Bodegraven</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -818,18 +818,18 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01-02-2025</t>
+          <t>16-02-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Voorschoten</t>
+          <t>Vlaardingen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -838,18 +838,18 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>02-02-2025</t>
+          <t>20-02-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Noordwijk</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -858,18 +858,18 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>137</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-02-2025</t>
+          <t>03-03-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Zaanstad</t>
+          <t>Noordwijk</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -878,18 +878,18 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05-02-2025</t>
+          <t>04-03-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Hilversum</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,18 +898,18 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06-02-2025</t>
+          <t>05-03-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vlaardingen</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -918,18 +918,18 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07-02-2025</t>
+          <t>06-03-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hilversum</t>
+          <t>Poperinge BE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -938,18 +938,18 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>164</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08-02-2025</t>
+          <t>11-03-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alphen aan den Rijn</t>
+          <t>Deventer</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -958,18 +958,18 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08-02-2025</t>
+          <t>12-03-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Brasschaat BE</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -978,18 +978,18 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>225</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10-02-2025</t>
+          <t>12-03-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Zoetermeer</t>
+          <t>Hoofddorp</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -998,587 +998,27 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10-02-2025</t>
+          <t>Totaal</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wassenaar</t>
+          <t>27 ritten</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>klant bezoeken</t>
+          <t>2025 Q1</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>11-02-2025</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Rotterdam</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>12-02-2025</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Delft</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>13-02-2025</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Schiedam</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>14-02-2025</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Hoofddorp</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>17-02-2025</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Hilversum</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>18-02-2025</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Dordrecht</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>20-02-2025</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Bodegraven</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>20-02-2025</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Rijswijk</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>21-02-2025</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Rijswijk</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>22-02-2025</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Voorschoten</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>22-02-2025</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Delft</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>27-02-2025</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Leiden</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>28-02-2025</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Katwijk</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>28-02-2025</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Deventer</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>02-03-2025</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Noordwijk</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>04-03-2025</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Roosendaal</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>07-03-2025</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Nieuwegein</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>08-03-2025</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Breda</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>13-03-2025</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Heerhugowaard</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>13-03-2025</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Voorschoten</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>17-03-2025</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Hoofddorp</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>18-03-2025</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Nieuwegein</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>21-03-2025</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Schiedam</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>21-03-2025</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Noordwijk</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>22-03-2025</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Hasselt BE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>23-03-2025</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Alphen aan den Rijn</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>28-03-2025</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Hoofddorp</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>klant bezoeken</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Totaal</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>55 ritten</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2025 Q1</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>5088</v>
+        <v>4005</v>
       </c>
     </row>
   </sheetData>
